--- a/biology/Zoologie/Le_Chien_du_Tibet/Le_Chien_du_Tibet.xlsx
+++ b/biology/Zoologie/Le_Chien_du_Tibet/Le_Chien_du_Tibet.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le Chien du Tibet (チベット犬物語, Chibetto inu monogatari?) est un film d'animation japonais de Masayuki Kojima sorti en 2011, d'après l’œuvre de l'écrivain Naoto Inoue. Il a été nommé dans plusieurs catégories au Festival international du film d'animation d'Annecy en 2011[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le Chien du Tibet (チベット犬物語, Chibetto inu monogatari?) est un film d'animation japonais de Masayuki Kojima sorti en 2011, d'après l’œuvre de l'écrivain Naoto Inoue. Il a été nommé dans plusieurs catégories au Festival international du film d'animation d'Annecy en 2011.
 L'histoire rappelle le conte mongol, traduit par « La Caverne du chien jaune », qui a inspiré le film « Le Chien jaune de Mongolie ».[réf. nécessaire]
 </t>
         </is>
@@ -512,7 +524,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après la mort de sa mère, Tenzin doit quitter la ville et aller vivre avec son père dans la prairie tibétaine. La vie est rude, il doit s'adapter à la vie nomade, se familiariser avec sa nouvelle famille et son nouvel environnement.
 Jusqu'au jour où le jeune homme est témoin d'un combat entre des chiens de garde tibétains et un chien aux poils dorés étranger à la meute qui deviendra son ami.
@@ -544,7 +558,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre original : チベット犬物語 (Chibetto inu monogatari?)
 Titre anglais : The Tibetan Dog
@@ -562,9 +578,9 @@
 Genre : Animation
 Durée : 95 minutes
 Dates de sortie :
-France : 6 juin 2011 (festival international du film d'animation d'Annecy) - 26 septembre 2012 (sortie en salles)[2]
+France : 6 juin 2011 (festival international du film d'animation d'Annecy) - 26 septembre 2012 (sortie en salles)
 Chine : 15 juillet 2011
-Japon : 7 janvier 2012[3]</t>
+Japon : 7 janvier 2012</t>
         </is>
       </c>
     </row>
@@ -594,9 +610,13 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Voix originales
-Voix françaises
-Claire Tefnin : Amala / Lachen / Femme
+          <t>Voix françaises</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Claire Tefnin : Amala / Lachen / Femme
 Frédéric Meaux : Jampa
 Michel Hinderyckx :  Ngawang
 Fanny Roy : Dalma
@@ -640,9 +660,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2011 : en sélection officielle lors du festival international du film d'animation d'Annecy[4]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>2011 : en sélection officielle lors du festival international du film d'animation d'Annecy</t>
         </is>
       </c>
     </row>
